--- a/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
+++ b/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.14</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.14</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6957</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.14</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.14</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.22</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.04</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7719</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.22</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>6.04</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,25 +710,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>002621</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>中欧消费主题股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>33.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>002697</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>中欧消费主题股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -706,25 +786,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002621</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧消费主题股票A</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8308</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -734,25 +824,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002697</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧消费主题股票C</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
+++ b/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5342</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7844</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
+++ b/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2632</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6552</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
+++ b/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
+++ b/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.97</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6051</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.25</v>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7886</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.91</v>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6817</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1528,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5896</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>5.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
+++ b/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1875,7 +1876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,17 +1887,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.78</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1922,14 +1965,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.97</v>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1938,14 +2003,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.25</v>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1954,14 +2041,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.91</v>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1970,13 +2079,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>5.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
+++ b/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2236,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,17 +2248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2267,14 +2288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.18</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2984</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2283,14 +2326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.78</v>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7866</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2299,14 +2364,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.97</v>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5833</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2315,14 +2402,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.25</v>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3070</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2331,14 +2440,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.91</v>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2347,13 +2478,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>5.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
+++ b/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>6.48</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>6.18</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>6.78</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>6.97</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4.91</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>5.42</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,32 +673,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010336</t>
+          <t>002621</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合A</t>
+          <t>中欧消费主题股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47.12</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>88.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2984</t>
+          <t>0.6326</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002621</t>
+          <t>002697</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧消费主题股票A</t>
+          <t>中欧消费主题股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.42</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>88.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7866</t>
+          <t>0.3190</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002697</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧消费主题股票C</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5833</t>
+          <t>0.1034</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -770,188 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010852</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧内需成长混合型证券投资基金A</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>91.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3070</t>
+          <t>0.0619</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2757</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005621</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0998</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010337</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧悦享生活混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0826</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010853</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧内需成长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.72</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1026,26 +891,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.28</t>
+          <t>47.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9181</t>
+          <t>3.2984</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1064,26 +929,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8268</t>
+          <t>1.7866</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1102,26 +967,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5871</t>
+          <t>0.5833</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1130,36 +995,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>010852</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>中欧内需成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3239</t>
+          <t>0.3070</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1168,36 +1033,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010852</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧内需成长混合型证券投资基金A</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3164</t>
+          <t>0.2757</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1216,26 +1081,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0961</t>
+          <t>0.0998</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1254,26 +1119,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0712</t>
+          <t>0.0826</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1292,26 +1157,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0405</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1320,6 +1185,366 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1831,7 +2056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2108,214 +2333,6 @@
       </c>
       <c r="H7" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002621</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5342</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7844</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002697</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7321</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005621</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1946</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2390,22 +2407,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.14</t>
+          <t>30.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9130</t>
+          <t>2.5342</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2418,32 +2435,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002697</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧消费主题股票C</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>11.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9520</t>
+          <t>0.7844</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2456,32 +2473,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>002697</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>中欧消费主题股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8308</t>
+          <t>0.7321</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2504,22 +2521,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2112</t>
+          <t>0.1946</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2532,6 +2549,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8308</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
+++ b/数据整理/stocks/A股/上证主板/603708-家家悦.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.12</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6.48</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>6.18</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>6.78</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>6.97</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>4.25</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>4.91</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
         <v>5.42</v>
       </c>
     </row>
@@ -616,7 +633,461 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6957</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7719</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家国证2000ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -817,366 +1288,6 @@
       </c>
       <c r="H5" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010336</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧悦享生活混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>47.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.16</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.2984</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002621</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7866</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002697</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5833</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010852</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧内需成长混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3070</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2757</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005621</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0998</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010337</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧悦享生活混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0826</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010853</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧内需成长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.72</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1251,26 +1362,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.28</t>
+          <t>47.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9181</t>
+          <t>3.2984</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1289,26 +1400,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8268</t>
+          <t>1.7866</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1327,26 +1438,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5871</t>
+          <t>0.5833</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1355,36 +1466,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>010852</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>中欧内需成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3239</t>
+          <t>0.3070</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1393,36 +1504,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010852</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧内需成长混合型证券投资基金A</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3164</t>
+          <t>0.2757</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1441,26 +1552,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0961</t>
+          <t>0.0998</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1479,26 +1590,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0712</t>
+          <t>0.0826</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1517,26 +1628,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0405</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1545,6 +1656,366 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2056,7 +2527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2333,214 +2804,6 @@
       </c>
       <c r="H7" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002621</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5342</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7844</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002697</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7321</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005621</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1946</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2615,22 +2878,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.14</t>
+          <t>30.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9130</t>
+          <t>2.5342</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2643,32 +2906,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002697</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧消费主题股票C</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>11.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9520</t>
+          <t>0.7844</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2681,32 +2944,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>002697</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>中欧消费主题股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8308</t>
+          <t>0.7321</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2729,22 +2992,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2112</t>
+          <t>0.1946</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2764,51 +3027,51 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2823,108 +3086,108 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.76</t>
+          <t>33.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6957</t>
+          <t>2.9130</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8308</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002697</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7733</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.78</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7719</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>005621</t>
@@ -2942,24 +3205,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1830</t>
+          <t>0.2112</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>